--- a/medicine/Enfance/Yōko_Imoto/Yōko_Imoto.xlsx
+++ b/medicine/Enfance/Yōko_Imoto/Yōko_Imoto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Y%C5%8Dko_Imoto</t>
+          <t>Yōko_Imoto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yōko Imoto (いもと ようこ / 井本 蓉子, Imoto Yōko?), née le 20 octobre 1944 dans la préfecture de Hyōgo, est une auteure et illustratrice japonaise.
-Imoto a publié plus de 200 livres, traduits en plusieurs langues, dont l'anglais, l'allemand, le français, le finnois et le coréen. Ses œuvres les plus célèbres incluent une série au Japon, spécifiquement destinée aux bébés qui entrent en contact pour la première fois avec des livres d'images ; les 24 livres de la série se sont vendus à plus de quatre millions d'exemplaires[1]. D'autres livres qu'elle a écrits sont des meilleures ventes au Japon, comme le livre illustré d'apprentissage Hiragana AIUEO no Ehon, vendus à 2,4 millions d'exemplaires[2]. Outre ses propres histoires principalement consacrées aux les animaux, elle a aussi adaptés en livres d'images des contes européens et japonais, par exemple de Kenji Miyazawa.
+Imoto a publié plus de 200 livres, traduits en plusieurs langues, dont l'anglais, l'allemand, le français, le finnois et le coréen. Ses œuvres les plus célèbres incluent une série au Japon, spécifiquement destinée aux bébés qui entrent en contact pour la première fois avec des livres d'images ; les 24 livres de la série se sont vendus à plus de quatre millions d'exemplaires. D'autres livres qu'elle a écrits sont des meilleures ventes au Japon, comme le livre illustré d'apprentissage Hiragana AIUEO no Ehon, vendus à 2,4 millions d'exemplaires. Outre ses propres histoires principalement consacrées aux les animaux, elle a aussi adaptés en livres d'images des contes européens et japonais, par exemple de Kenji Miyazawa.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Y%C5%8Dko_Imoto</t>
+          <t>Yōko_Imoto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Prix et distinction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1985 : Foire du livre de jeunesse de Bologne, mention honorable pour Neko no Ehon
 1986 : Foire du livre de jeunesse de Bologne, mention honorable pour Soba no hana saita hi
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Y%C5%8Dko_Imoto</t>
+          <t>Yōko_Imoto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Livres (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Odenwa rururu (おでんわるるる), 1980, avec Asao Sakurai
 Le Téléphone rouge, 1987
